--- a/data/MMWD_RainfallRecords2/0708Rain.xlsx
+++ b/data/MMWD_RainfallRecords2/0708Rain.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection lockWindows="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="CM" sheetId="1" state="visible" r:id="rId2"/>
@@ -129,6 +129,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -150,23 +151,27 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -428,7 +433,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -555,10 +560,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -736,11 +737,11 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L30" activeCellId="0" sqref="L30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.64"/>
@@ -793,7 +794,7 @@
         <v>39508</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>112587</v>
+        <v>39539</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>39569</v>
@@ -2462,7 +2463,7 @@
       <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.64"/>
@@ -2876,7 +2877,7 @@
       <c r="G12" s="14" t="n">
         <v>1.28</v>
       </c>
-      <c r="H12" s="32" t="n">
+      <c r="H12" s="14" t="n">
         <v>0.34</v>
       </c>
       <c r="I12" s="12" t="n">
@@ -3937,7 +3938,7 @@
       <c r="L36" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="M36" s="33"/>
+      <c r="M36" s="32"/>
       <c r="N36" s="15" t="n">
         <v>31</v>
       </c>
@@ -4152,7 +4153,7 @@
       <selection pane="topLeft" activeCell="M39" activeCellId="0" sqref="M39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.5" footer="0.5"/>
@@ -4171,11 +4172,11 @@
   </sheetPr>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.31"/>
@@ -4241,908 +4242,908 @@
       <c r="M4" s="5" t="n">
         <v>39600</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="39"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="38"/>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="35"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="34"/>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="45" t="n">
+      <c r="B7" s="44" t="n">
         <f aca="false">CM!B37</f>
         <v>0</v>
       </c>
-      <c r="C7" s="42" t="n">
+      <c r="C7" s="41" t="n">
         <f aca="false">CM!C37</f>
         <v>0.01</v>
       </c>
-      <c r="D7" s="42" t="n">
+      <c r="D7" s="41" t="n">
         <f aca="false">CM!D37</f>
         <v>0.02</v>
       </c>
-      <c r="E7" s="42" t="n">
+      <c r="E7" s="41" t="n">
         <f aca="false">CM!E37</f>
         <v>3.49</v>
       </c>
-      <c r="F7" s="42" t="n">
+      <c r="F7" s="41" t="n">
         <f aca="false">CM!F37</f>
         <v>0.98</v>
       </c>
-      <c r="G7" s="42" t="n">
+      <c r="G7" s="41" t="n">
         <f aca="false">CM!G37</f>
         <v>6.23</v>
       </c>
-      <c r="H7" s="42" t="n">
+      <c r="H7" s="41" t="n">
         <f aca="false">CM!H37</f>
         <v>15.32</v>
       </c>
-      <c r="I7" s="42" t="n">
+      <c r="I7" s="41" t="n">
         <f aca="false">CM!I37</f>
         <v>4.5</v>
       </c>
-      <c r="J7" s="42" t="n">
+      <c r="J7" s="41" t="n">
         <f aca="false">CM!J37</f>
         <v>0.39</v>
       </c>
-      <c r="K7" s="42" t="n">
+      <c r="K7" s="41" t="n">
         <f aca="false">CM!K37</f>
         <v>0.28</v>
       </c>
-      <c r="L7" s="42" t="n">
+      <c r="L7" s="41" t="n">
         <f aca="false">CM!L37</f>
         <v>0.01</v>
       </c>
-      <c r="M7" s="45" t="n">
+      <c r="M7" s="44" t="n">
         <f aca="false">CM!M37</f>
         <v>0</v>
       </c>
-      <c r="N7" s="46" t="n">
+      <c r="N7" s="45" t="n">
         <f aca="false">SUM(B7:M7)</f>
         <v>31.23</v>
       </c>
-      <c r="O7" s="35" t="s">
+      <c r="O7" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="35"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="34"/>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="42" t="n">
+      <c r="B9" s="41" t="n">
         <f aca="false">'NIC-DAM'!B37</f>
         <v>0.12</v>
       </c>
-      <c r="C9" s="45" t="n">
+      <c r="C9" s="44" t="n">
         <f aca="false">'NIC-DAM'!C37</f>
         <v>0</v>
       </c>
-      <c r="D9" s="45" t="n">
+      <c r="D9" s="44" t="n">
         <f aca="false">'NIC-DAM'!D37</f>
         <v>0</v>
       </c>
-      <c r="E9" s="42" t="n">
+      <c r="E9" s="41" t="n">
         <f aca="false">'NIC-DAM'!E37</f>
         <v>1.86</v>
       </c>
-      <c r="F9" s="42" t="n">
+      <c r="F9" s="41" t="n">
         <f aca="false">'NIC-DAM'!F37</f>
         <v>1.12</v>
       </c>
-      <c r="G9" s="42" t="n">
+      <c r="G9" s="41" t="n">
         <f aca="false">'NIC-DAM'!G37</f>
         <v>5.74</v>
       </c>
-      <c r="H9" s="42" t="n">
+      <c r="H9" s="41" t="n">
         <f aca="false">'NIC-DAM'!H37</f>
         <v>14.48</v>
       </c>
-      <c r="I9" s="42" t="n">
+      <c r="I9" s="41" t="n">
         <f aca="false">'NIC-DAM'!I37</f>
         <v>6.34</v>
       </c>
-      <c r="J9" s="42" t="n">
+      <c r="J9" s="41" t="n">
         <f aca="false">'NIC-DAM'!J37</f>
         <v>0.54</v>
       </c>
-      <c r="K9" s="42" t="n">
+      <c r="K9" s="41" t="n">
         <f aca="false">'NIC-DAM'!K37</f>
         <v>0.23</v>
       </c>
-      <c r="L9" s="42" t="n">
+      <c r="L9" s="41" t="n">
         <f aca="false">'NIC-DAM'!L37</f>
         <v>0.11</v>
       </c>
-      <c r="M9" s="45" t="n">
+      <c r="M9" s="44" t="n">
         <f aca="false">'NIC-DAM'!M37</f>
         <v>0</v>
       </c>
-      <c r="N9" s="46" t="n">
+      <c r="N9" s="45" t="n">
         <f aca="false">SUM(B9:M9)</f>
         <v>30.54</v>
       </c>
-      <c r="O9" s="35" t="s">
+      <c r="O9" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="35"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="34"/>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="42" t="n">
+      <c r="B11" s="41" t="n">
         <f aca="false">KENT!B37</f>
         <v>0.05</v>
       </c>
-      <c r="C11" s="45" t="n">
+      <c r="C11" s="44" t="n">
         <f aca="false">KENT!C37</f>
         <v>0</v>
       </c>
-      <c r="D11" s="42" t="n">
+      <c r="D11" s="41" t="n">
         <f aca="false">KENT!D37</f>
         <v>0.17</v>
       </c>
-      <c r="E11" s="42" t="n">
+      <c r="E11" s="41" t="n">
         <f aca="false">KENT!E37</f>
         <v>2.75</v>
       </c>
-      <c r="F11" s="42" t="n">
+      <c r="F11" s="41" t="n">
         <f aca="false">KENT!F37</f>
         <v>1.18</v>
       </c>
-      <c r="G11" s="42" t="n">
+      <c r="G11" s="41" t="n">
         <f aca="false">KENT!G37</f>
         <v>8.91</v>
       </c>
-      <c r="H11" s="42" t="n">
+      <c r="H11" s="41" t="n">
         <f aca="false">KENT!H37</f>
         <v>16.51</v>
       </c>
-      <c r="I11" s="42" t="n">
+      <c r="I11" s="41" t="n">
         <f aca="false">KENT!I37</f>
         <v>8.8</v>
       </c>
-      <c r="J11" s="42" t="n">
+      <c r="J11" s="41" t="n">
         <f aca="false">KENT!J37</f>
         <v>0.71</v>
       </c>
-      <c r="K11" s="42" t="n">
+      <c r="K11" s="41" t="n">
         <f aca="false">KENT!K37</f>
         <v>0.5</v>
       </c>
-      <c r="L11" s="42" t="n">
+      <c r="L11" s="41" t="n">
         <f aca="false">KENT!L37</f>
         <v>0.11</v>
       </c>
-      <c r="M11" s="45" t="n">
+      <c r="M11" s="44" t="n">
         <f aca="false">KENT!M37</f>
         <v>0</v>
       </c>
-      <c r="N11" s="46" t="n">
+      <c r="N11" s="45" t="n">
         <f aca="false">SUM(B11:M11)</f>
         <v>39.69</v>
       </c>
-      <c r="O11" s="35" t="s">
+      <c r="O11" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="35"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="34"/>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="42" t="n">
+      <c r="B13" s="41" t="n">
         <f aca="false">ALPINE!B37</f>
         <v>0.03</v>
       </c>
-      <c r="C13" s="45" t="n">
+      <c r="C13" s="44" t="n">
         <f aca="false">ALPINE!C37</f>
         <v>0</v>
       </c>
-      <c r="D13" s="42" t="n">
+      <c r="D13" s="41" t="n">
         <f aca="false">ALPINE!D37</f>
         <v>0.02</v>
       </c>
-      <c r="E13" s="42" t="n">
+      <c r="E13" s="41" t="n">
         <f aca="false">ALPINE!E37</f>
         <v>4.73</v>
       </c>
-      <c r="F13" s="42" t="n">
+      <c r="F13" s="41" t="n">
         <f aca="false">ALPINE!F37</f>
         <v>1.53</v>
       </c>
-      <c r="G13" s="42" t="n">
+      <c r="G13" s="41" t="n">
         <f aca="false">ALPINE!G37</f>
         <v>7.63</v>
       </c>
-      <c r="H13" s="42" t="n">
+      <c r="H13" s="41" t="n">
         <f aca="false">ALPINE!H37</f>
         <v>16.01</v>
       </c>
-      <c r="I13" s="42" t="n">
+      <c r="I13" s="41" t="n">
         <f aca="false">ALPINE!I37</f>
         <v>9.14</v>
       </c>
-      <c r="J13" s="42" t="n">
+      <c r="J13" s="41" t="n">
         <f aca="false">ALPINE!J37</f>
         <v>0.89</v>
       </c>
-      <c r="K13" s="42" t="n">
+      <c r="K13" s="41" t="n">
         <f aca="false">ALPINE!K37</f>
         <v>0.56</v>
       </c>
-      <c r="L13" s="42" t="n">
+      <c r="L13" s="41" t="n">
         <f aca="false">ALPINE!L37</f>
         <v>0.05</v>
       </c>
-      <c r="M13" s="45" t="n">
+      <c r="M13" s="44" t="n">
         <f aca="false">ALPINE!M37</f>
         <v>0</v>
       </c>
-      <c r="N13" s="46" t="n">
+      <c r="N13" s="45" t="n">
         <f aca="false">SUM(B13:M13)</f>
         <v>40.59</v>
       </c>
-      <c r="O13" s="35" t="s">
+      <c r="O13" s="34" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="35"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="34"/>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="45" t="n">
+      <c r="B15" s="44" t="n">
         <f aca="false">'BON TEMPE'!B37</f>
         <v>0</v>
       </c>
-      <c r="C15" s="45" t="n">
+      <c r="C15" s="44" t="n">
         <f aca="false">'BON TEMPE'!C37</f>
         <v>0</v>
       </c>
-      <c r="D15" s="42" t="n">
+      <c r="D15" s="41" t="n">
         <f aca="false">'BON TEMPE'!D37</f>
         <v>0.02</v>
       </c>
-      <c r="E15" s="42" t="n">
+      <c r="E15" s="41" t="n">
         <f aca="false">'BON TEMPE'!E37</f>
         <v>3.59</v>
       </c>
-      <c r="F15" s="42" t="n">
+      <c r="F15" s="41" t="n">
         <f aca="false">'BON TEMPE'!F37</f>
         <v>1.15</v>
       </c>
-      <c r="G15" s="42" t="n">
+      <c r="G15" s="41" t="n">
         <f aca="false">'BON TEMPE'!G37</f>
         <v>5.89</v>
       </c>
-      <c r="H15" s="42" t="n">
+      <c r="H15" s="41" t="n">
         <f aca="false">'BON TEMPE'!H37</f>
         <v>12.79</v>
       </c>
-      <c r="I15" s="42" t="n">
+      <c r="I15" s="41" t="n">
         <f aca="false">'BON TEMPE'!I37</f>
         <v>8.55</v>
       </c>
-      <c r="J15" s="42" t="n">
+      <c r="J15" s="41" t="n">
         <f aca="false">'BON TEMPE'!J37</f>
         <v>0.37</v>
       </c>
-      <c r="K15" s="42" t="n">
+      <c r="K15" s="41" t="n">
         <f aca="false">'BON TEMPE'!K37</f>
         <v>0.42</v>
       </c>
-      <c r="L15" s="42" t="n">
+      <c r="L15" s="41" t="n">
         <f aca="false">'BON TEMPE'!L37</f>
         <v>0.05</v>
       </c>
-      <c r="M15" s="45" t="n">
+      <c r="M15" s="44" t="n">
         <f aca="false">'BON TEMPE'!M37</f>
         <v>0</v>
       </c>
-      <c r="N15" s="46" t="n">
+      <c r="N15" s="45" t="n">
         <f aca="false">SUM(B15:M15)</f>
         <v>32.83</v>
       </c>
-      <c r="O15" s="35" t="s">
+      <c r="O15" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="35"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="34"/>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="45" t="n">
+      <c r="B17" s="44" t="n">
         <f aca="false">LAGUNITAS!B37</f>
         <v>0</v>
       </c>
-      <c r="C17" s="45" t="n">
+      <c r="C17" s="44" t="n">
         <f aca="false">LAGUNITAS!C37</f>
         <v>0</v>
       </c>
-      <c r="D17" s="42" t="n">
+      <c r="D17" s="41" t="n">
         <f aca="false">LAGUNITAS!D37</f>
         <v>0.04</v>
       </c>
-      <c r="E17" s="42" t="n">
+      <c r="E17" s="41" t="n">
         <f aca="false">LAGUNITAS!E37</f>
         <v>4.16</v>
       </c>
-      <c r="F17" s="42" t="n">
+      <c r="F17" s="41" t="n">
         <f aca="false">LAGUNITAS!F37</f>
         <v>0.89</v>
       </c>
-      <c r="G17" s="42" t="n">
+      <c r="G17" s="41" t="n">
         <f aca="false">LAGUNITAS!G37</f>
         <v>7.7</v>
       </c>
-      <c r="H17" s="42" t="n">
+      <c r="H17" s="41" t="n">
         <f aca="false">LAGUNITAS!H37</f>
         <v>22.05</v>
       </c>
-      <c r="I17" s="42" t="n">
+      <c r="I17" s="41" t="n">
         <f aca="false">LAGUNITAS!I37</f>
         <v>5.63</v>
       </c>
-      <c r="J17" s="42" t="n">
+      <c r="J17" s="41" t="n">
         <f aca="false">LAGUNITAS!J37</f>
         <v>0.29</v>
       </c>
-      <c r="K17" s="42" t="n">
+      <c r="K17" s="41" t="n">
         <f aca="false">LAGUNITAS!K37</f>
         <v>0.39</v>
       </c>
-      <c r="L17" s="42" t="n">
+      <c r="L17" s="41" t="n">
         <f aca="false">LAGUNITAS!L37</f>
         <v>0.09</v>
       </c>
-      <c r="M17" s="45" t="n">
+      <c r="M17" s="44" t="n">
         <f aca="false">LAGUNITAS!M37</f>
         <v>0</v>
       </c>
-      <c r="N17" s="46" t="n">
+      <c r="N17" s="45" t="n">
         <f aca="false">SUM(B17:M17)</f>
         <v>41.24</v>
       </c>
-      <c r="O17" s="35" t="s">
+      <c r="O17" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="35"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="34"/>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="45" t="n">
+      <c r="B19" s="44" t="n">
         <f aca="false">PHOENIX!B37</f>
         <v>0</v>
       </c>
-      <c r="C19" s="45" t="n">
+      <c r="C19" s="44" t="n">
         <f aca="false">PHOENIX!C37</f>
         <v>0</v>
       </c>
-      <c r="D19" s="42" t="n">
+      <c r="D19" s="41" t="n">
         <f aca="false">PHOENIX!D37</f>
         <v>0.05</v>
       </c>
-      <c r="E19" s="42" t="n">
+      <c r="E19" s="41" t="n">
         <f aca="false">PHOENIX!E37</f>
         <v>3.86</v>
       </c>
-      <c r="F19" s="42" t="n">
+      <c r="F19" s="41" t="n">
         <f aca="false">PHOENIX!F37</f>
         <v>0.85</v>
       </c>
-      <c r="G19" s="42" t="n">
+      <c r="G19" s="41" t="n">
         <f aca="false">PHOENIX!G37</f>
         <v>8.3</v>
       </c>
-      <c r="H19" s="42" t="n">
+      <c r="H19" s="41" t="n">
         <f aca="false">PHOENIX!H37</f>
         <v>18.1</v>
       </c>
-      <c r="I19" s="42" t="n">
+      <c r="I19" s="41" t="n">
         <f aca="false">PHOENIX!I37</f>
         <v>7.42</v>
       </c>
-      <c r="J19" s="42" t="n">
+      <c r="J19" s="41" t="n">
         <f aca="false">PHOENIX!J37</f>
         <v>0.3</v>
       </c>
-      <c r="K19" s="42" t="n">
+      <c r="K19" s="41" t="n">
         <f aca="false">PHOENIX!K37</f>
         <v>0.34</v>
       </c>
-      <c r="L19" s="42" t="n">
+      <c r="L19" s="41" t="n">
         <f aca="false">PHOENIX!L37</f>
         <v>0.03</v>
       </c>
-      <c r="M19" s="45" t="n">
+      <c r="M19" s="44" t="n">
         <f aca="false">PHOENIX!M37</f>
         <v>0</v>
       </c>
-      <c r="N19" s="46" t="n">
+      <c r="N19" s="45" t="n">
         <f aca="false">SUM(B19:M19)</f>
         <v>39.25</v>
       </c>
-      <c r="O19" s="35" t="s">
+      <c r="O19" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="35"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="34"/>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="42" t="n">
+      <c r="B21" s="41" t="n">
         <f aca="false">SOULAJULE!B37</f>
         <v>0.12</v>
       </c>
-      <c r="C21" s="45" t="n">
+      <c r="C21" s="44" t="n">
         <f aca="false">SOULAJULE!C37</f>
         <v>0</v>
       </c>
-      <c r="D21" s="45" t="n">
+      <c r="D21" s="44" t="n">
         <f aca="false">SOULAJULE!D37</f>
         <v>0</v>
       </c>
-      <c r="E21" s="42" t="n">
+      <c r="E21" s="41" t="n">
         <f aca="false">SOULAJULE!E37</f>
         <v>1.93</v>
       </c>
-      <c r="F21" s="42" t="n">
+      <c r="F21" s="41" t="n">
         <f aca="false">SOULAJULE!F37</f>
         <v>1.08</v>
       </c>
-      <c r="G21" s="42" t="n">
+      <c r="G21" s="41" t="n">
         <f aca="false">SOULAJULE!G37</f>
         <v>6.12</v>
       </c>
-      <c r="H21" s="42" t="n">
+      <c r="H21" s="41" t="n">
         <f aca="false">SOULAJULE!H37</f>
         <v>13.8</v>
       </c>
-      <c r="I21" s="42" t="n">
+      <c r="I21" s="41" t="n">
         <f aca="false">SOULAJULE!I37</f>
         <v>7.01</v>
       </c>
-      <c r="J21" s="42" t="n">
+      <c r="J21" s="41" t="n">
         <f aca="false">SOULAJULE!J37</f>
         <v>0.76</v>
       </c>
-      <c r="K21" s="42" t="n">
+      <c r="K21" s="41" t="n">
         <f aca="false">SOULAJULE!K37</f>
         <v>0.26</v>
       </c>
-      <c r="L21" s="42" t="n">
+      <c r="L21" s="41" t="n">
         <f aca="false">SOULAJULE!L37</f>
         <v>0.12</v>
       </c>
-      <c r="M21" s="45" t="n">
+      <c r="M21" s="44" t="n">
         <f aca="false">SOULAJULE!M37</f>
         <v>0</v>
       </c>
-      <c r="N21" s="46" t="n">
+      <c r="N21" s="45" t="n">
         <f aca="false">SUM(B21:M21)</f>
         <v>31.2</v>
       </c>
-      <c r="O21" s="35" t="s">
+      <c r="O21" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="35"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="34"/>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="42" t="n">
+      <c r="B23" s="41" t="n">
         <f aca="false">'NIC-TOWN'!B37</f>
         <v>0.17</v>
       </c>
-      <c r="C23" s="45" t="n">
+      <c r="C23" s="44" t="n">
         <f aca="false">'NIC-TOWN'!C37</f>
         <v>0</v>
       </c>
-      <c r="D23" s="45" t="n">
+      <c r="D23" s="44" t="n">
         <f aca="false">'NIC-TOWN'!D37</f>
         <v>0</v>
       </c>
-      <c r="E23" s="42" t="n">
+      <c r="E23" s="41" t="n">
         <f aca="false">'NIC-TOWN'!E37</f>
         <v>1.92</v>
       </c>
-      <c r="F23" s="42" t="n">
+      <c r="F23" s="41" t="n">
         <f aca="false">'NIC-TOWN'!F37</f>
         <v>1.03</v>
       </c>
-      <c r="G23" s="42" t="n">
+      <c r="G23" s="41" t="n">
         <f aca="false">'NIC-TOWN'!G37</f>
         <v>5.42</v>
       </c>
-      <c r="H23" s="42" t="n">
+      <c r="H23" s="41" t="n">
         <f aca="false">'NIC-TOWN'!H37</f>
         <v>16.78</v>
       </c>
-      <c r="I23" s="42" t="n">
+      <c r="I23" s="41" t="n">
         <f aca="false">'NIC-TOWN'!I37</f>
         <v>6.18</v>
       </c>
-      <c r="J23" s="42" t="n">
+      <c r="J23" s="41" t="n">
         <f aca="false">'NIC-TOWN'!J37</f>
         <v>0.42</v>
       </c>
-      <c r="K23" s="42" t="n">
+      <c r="K23" s="41" t="n">
         <f aca="false">'NIC-TOWN'!K37</f>
         <v>0</v>
       </c>
-      <c r="L23" s="42" t="n">
+      <c r="L23" s="41" t="n">
         <f aca="false">'NIC-TOWN'!L37</f>
         <v>0.08</v>
       </c>
-      <c r="M23" s="45" t="n">
+      <c r="M23" s="44" t="n">
         <f aca="false">'NIC-TOWN'!M37</f>
         <v>0</v>
       </c>
-      <c r="N23" s="46" t="n">
+      <c r="N23" s="45" t="n">
         <f aca="false">SUM(B23:M23)</f>
         <v>32</v>
       </c>
-      <c r="O23" s="35" t="s">
+      <c r="O23" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="35"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="34"/>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="42" t="n">
+      <c r="B25" s="41" t="n">
         <f aca="false">'TOCO-LOMA'!B37</f>
         <v>0.16</v>
       </c>
-      <c r="C25" s="45" t="n">
+      <c r="C25" s="44" t="n">
         <f aca="false">'TOCO-LOMA'!C37</f>
         <v>0</v>
       </c>
-      <c r="D25" s="45" t="n">
+      <c r="D25" s="44" t="n">
         <f aca="false">'TOCO-LOMA'!D37</f>
         <v>0</v>
       </c>
-      <c r="E25" s="42" t="n">
+      <c r="E25" s="41" t="n">
         <f aca="false">'TOCO-LOMA'!E37</f>
         <v>2.07</v>
       </c>
-      <c r="F25" s="42" t="n">
+      <c r="F25" s="41" t="n">
         <f aca="false">'TOCO-LOMA'!F37</f>
         <v>1.02</v>
       </c>
-      <c r="G25" s="42" t="n">
+      <c r="G25" s="41" t="n">
         <f aca="false">'TOCO-LOMA'!G37</f>
         <v>6.46</v>
       </c>
-      <c r="H25" s="42" t="n">
+      <c r="H25" s="41" t="n">
         <f aca="false">'TOCO-LOMA'!H37</f>
         <v>15.56</v>
       </c>
-      <c r="I25" s="42" t="n">
+      <c r="I25" s="41" t="n">
         <f aca="false">'TOCO-LOMA'!I37</f>
         <v>6.53</v>
       </c>
-      <c r="J25" s="42" t="n">
+      <c r="J25" s="41" t="n">
         <f aca="false">'TOCO-LOMA'!J37</f>
         <v>0.69</v>
       </c>
-      <c r="K25" s="42" t="n">
+      <c r="K25" s="41" t="n">
         <f aca="false">'TOCO-LOMA'!K37</f>
         <v>0.28</v>
       </c>
-      <c r="L25" s="42" t="n">
+      <c r="L25" s="41" t="n">
         <f aca="false">'TOCO-LOMA'!L37</f>
         <v>0.08</v>
       </c>
-      <c r="M25" s="45" t="n">
+      <c r="M25" s="44" t="n">
         <f aca="false">'TOCO-LOMA'!M37</f>
         <v>0</v>
       </c>
-      <c r="N25" s="46" t="n">
+      <c r="N25" s="45" t="n">
         <f aca="false">SUM(B25:M25)</f>
         <v>32.85</v>
       </c>
-      <c r="O25" s="35" t="s">
+      <c r="O25" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="35"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="34"/>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="50" t="n">
+      <c r="B27" s="49" t="n">
         <f aca="false">AVERAGE(B6:B26)</f>
         <v>0.065</v>
       </c>
-      <c r="C27" s="50" t="n">
+      <c r="C27" s="49" t="n">
         <f aca="false">AVERAGE(C6:C26)</f>
         <v>0.001</v>
       </c>
-      <c r="D27" s="50" t="n">
+      <c r="D27" s="49" t="n">
         <f aca="false">AVERAGE(D6:D26)</f>
         <v>0.032</v>
       </c>
-      <c r="E27" s="50" t="n">
+      <c r="E27" s="49" t="n">
         <f aca="false">AVERAGE(E6:E26)</f>
         <v>3.036</v>
       </c>
-      <c r="F27" s="50" t="n">
+      <c r="F27" s="49" t="n">
         <f aca="false">AVERAGE(F6:F26)</f>
         <v>1.083</v>
       </c>
-      <c r="G27" s="50" t="n">
+      <c r="G27" s="49" t="n">
         <f aca="false">AVERAGE(G6:G26)</f>
         <v>6.84</v>
       </c>
-      <c r="H27" s="50" t="n">
+      <c r="H27" s="49" t="n">
         <f aca="false">AVERAGE(H6:H26)</f>
         <v>16.14</v>
       </c>
-      <c r="I27" s="50" t="n">
+      <c r="I27" s="49" t="n">
         <f aca="false">AVERAGE(I6:I26)</f>
         <v>7.01</v>
       </c>
-      <c r="J27" s="50" t="n">
+      <c r="J27" s="49" t="n">
         <f aca="false">AVERAGE(J6:J26)</f>
         <v>0.536</v>
       </c>
-      <c r="K27" s="50" t="n">
+      <c r="K27" s="49" t="n">
         <f aca="false">AVERAGE(K6:K26)</f>
         <v>0.326</v>
       </c>
-      <c r="L27" s="50" t="n">
+      <c r="L27" s="49" t="n">
         <f aca="false">AVERAGE(L6:L26)</f>
         <v>0.073</v>
       </c>
-      <c r="M27" s="51" t="n">
+      <c r="M27" s="50" t="n">
         <f aca="false">AVERAGE(M6:M26)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="52" t="n">
+      <c r="N27" s="51" t="n">
         <f aca="false">AVERAGE(N6:N26)</f>
         <v>35.142</v>
       </c>
-      <c r="O27" s="53" t="s">
+      <c r="O27" s="52" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="56"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="55"/>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="56"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="55"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5166,7 +5167,7 @@
       <selection pane="topLeft" activeCell="L30" activeCellId="0" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.09"/>
@@ -6858,9 +6859,9 @@
       <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.09"/>
   </cols>
@@ -8549,9 +8550,9 @@
       <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.65"/>
   </cols>
   <sheetData>
@@ -10239,10 +10240,10 @@
       <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11941,9 +11942,9 @@
       <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.31"/>
   </cols>
   <sheetData>
@@ -13659,7 +13660,7 @@
       <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.42"/>
@@ -15363,7 +15364,7 @@
       <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.65"/>
@@ -17053,10 +17054,10 @@
       <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
